--- a/manual-docs/STC_Research_BugReport.xlsx
+++ b/manual-docs/STC_Research_BugReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>Type of Issue</t>
   </si>
@@ -510,6 +510,15 @@
   <si>
     <t>Should navigate to the correct internal link:
 https://stthomas.ac.in/research-advisory-committee/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -913,27 +922,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="72.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="72.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -961,11 +970,17 @@
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -993,11 +1008,17 @@
       <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1025,11 +1046,17 @@
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1057,11 +1084,17 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1089,11 +1122,17 @@
       <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="172.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="172.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1121,11 +1160,17 @@
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="139.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1153,11 +1198,17 @@
       <c r="I7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1185,11 +1236,17 @@
       <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1217,11 +1274,17 @@
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1249,11 +1312,17 @@
       <c r="I10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1281,11 +1350,17 @@
       <c r="I11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="154.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="154.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1313,11 +1388,17 @@
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1345,11 +1426,17 @@
       <c r="I13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="112.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="112.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1377,11 +1464,17 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1409,11 +1502,17 @@
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1441,11 +1540,17 @@
       <c r="I16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1473,11 +1578,17 @@
       <c r="I17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1505,11 +1616,17 @@
       <c r="I18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1537,115 +1654,121 @@
       <c r="I19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J6" r:id="rId4"/>
-    <hyperlink ref="J7" r:id="rId5"/>
-    <hyperlink ref="J8" r:id="rId6"/>
-    <hyperlink ref="J9" r:id="rId7"/>
-    <hyperlink ref="J10" r:id="rId8"/>
-    <hyperlink ref="J11" r:id="rId9"/>
-    <hyperlink ref="J12" r:id="rId10"/>
-    <hyperlink ref="J13" r:id="rId11"/>
-    <hyperlink ref="J14" r:id="rId12"/>
-    <hyperlink ref="J15" r:id="rId13"/>
-    <hyperlink ref="J16" r:id="rId14"/>
-    <hyperlink ref="J17" r:id="rId15" display="https://drive.google.com/file/d/1lEs-dgQRr0KEk_58fI4oHdR-0ZC90t1S/view?usp=sharing"/>
-    <hyperlink ref="J18" r:id="rId16"/>
-    <hyperlink ref="J5" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L6" r:id="rId4"/>
+    <hyperlink ref="L7" r:id="rId5"/>
+    <hyperlink ref="L8" r:id="rId6"/>
+    <hyperlink ref="L9" r:id="rId7"/>
+    <hyperlink ref="L10" r:id="rId8"/>
+    <hyperlink ref="L11" r:id="rId9"/>
+    <hyperlink ref="L12" r:id="rId10"/>
+    <hyperlink ref="L13" r:id="rId11"/>
+    <hyperlink ref="L14" r:id="rId12"/>
+    <hyperlink ref="L15" r:id="rId13"/>
+    <hyperlink ref="L16" r:id="rId14"/>
+    <hyperlink ref="L17" r:id="rId15" display="https://drive.google.com/file/d/1lEs-dgQRr0KEk_58fI4oHdR-0ZC90t1S/view?usp=sharing"/>
+    <hyperlink ref="L18" r:id="rId16"/>
+    <hyperlink ref="L5" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
